--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/jiketraining/LeetCodeTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD89E0B-E16E-2544-ADAE-F2B2AC787C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8783F0-D763-4095-A44E-35EC5367FAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{2BA3C5B0-F6E3-364F-A66A-029774147DB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BA3C5B0-F6E3-364F-A66A-029774147DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Week01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
   <si>
     <t>题号</t>
   </si>
@@ -292,17 +292,32 @@
   <si>
     <t xml:space="preserve">
 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,14 +325,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,14 +340,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,14 +355,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,8 +370,15 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -499,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,36 +553,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -586,52 +578,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,12 +731,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1009,35 +1030,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BB2F4C-BF5C-0342-8F98-3EC4A08B1BD0}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1054,61 +1075,61 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:10" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="40">
-        <v>11.29</v>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23">
+        <v>2.14</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -1126,37 +1147,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>283</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="27">
+        <v>2.14</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+    <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>70</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="41" t="s">
-        <v>13</v>
+      <c r="D7" s="13"/>
+      <c r="E7" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1172,19 +1195,19 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="41" t="s">
-        <v>13</v>
+      <c r="D8" s="13"/>
+      <c r="E8" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -1200,19 +1223,19 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>206</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="41" t="s">
-        <v>13</v>
+      <c r="D9" s="13"/>
+      <c r="E9" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -1228,19 +1251,19 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>24</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="41" t="s">
-        <v>13</v>
+      <c r="D10" s="13"/>
+      <c r="E10" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>13</v>
@@ -1256,19 +1279,19 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+    <row r="11" spans="1:10" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>141</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="41" t="s">
-        <v>13</v>
+      <c r="D11" s="13"/>
+      <c r="E11" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
@@ -1284,19 +1307,19 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+    <row r="12" spans="1:10" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>142</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="41" t="s">
-        <v>13</v>
+      <c r="D12" s="13"/>
+      <c r="E12" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1312,18 +1335,18 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+    <row r="13" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>25</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1340,20 +1363,20 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+    <row r="14" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>20</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1370,20 +1393,20 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+    <row r="15" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>155</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1400,20 +1423,20 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
         <v>84</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="25" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1430,20 +1453,20 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+    <row r="17" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
         <v>239</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1460,86 +1483,86 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+    <row r="22" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>26</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>189</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="41" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1556,18 +1579,18 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+    <row r="24" spans="1:10" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="41" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1584,18 +1607,18 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+    <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
         <v>88</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="41" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1612,18 +1635,18 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="41" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1640,18 +1663,18 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>66</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -1668,20 +1691,20 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>641</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1698,20 +1721,20 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>42</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -1738,6 +1761,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:I4"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{85D381C6-7833-0C4B-8B29-6926B2316715}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{85D5FC1A-EB47-1C4D-B95B-649C872A24FC}"/>
@@ -1763,7 +1787,8 @@
     <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{DA9352DE-8963-BA47-A669-A5590535AB5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1775,18 +1800,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1810,53 +1835,53 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+    <row r="5" spans="1:10" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>242</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1874,11 +1899,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>49</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1894,11 +1919,11 @@
       <c r="I6" s="6"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+    <row r="7" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1914,11 +1939,11 @@
       <c r="I7" s="6"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:10" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>94</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1934,11 +1959,11 @@
       <c r="I8" s="6"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+    <row r="9" spans="1:10" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>144</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1954,11 +1979,11 @@
       <c r="I9" s="6"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>590</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1974,11 +1999,11 @@
       <c r="I10" s="6"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+    <row r="11" spans="1:10" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>589</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1994,11 +2019,11 @@
       <c r="I11" s="6"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+    <row r="12" spans="1:10" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>429</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2014,11 +2039,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2032,11 +2057,11 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+    <row r="14" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>239</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2062,9 +2087,9 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2074,9 +2099,9 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2086,11 +2111,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2100,9 +2125,9 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2112,11 +2137,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:10" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2132,11 +2157,11 @@
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+    <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>347</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2159,6 +2184,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:I4"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{2B7F7EDF-26E0-AD4D-8A65-53E3202F65CF}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{26CFF27A-C941-054E-8FFE-69664DBEFC2F}"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8783F0-D763-4095-A44E-35EC5367FAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BA3C5B0-F6E3-364F-A66A-029774147DB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Week01" sheetId="1" r:id="rId1"/>
     <sheet name="Week02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
   <si>
     <t>题号</t>
   </si>
@@ -308,11 +307,16 @@
 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">2.15
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -686,7 +690,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,11 +1031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BB2F4C-BF5C-0342-8F98-3EC4A08B1BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1346,8 +1350,8 @@
         <v>30</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="24" t="s">
-        <v>13</v>
+      <c r="E13" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>13</v>
@@ -1376,8 +1380,8 @@
       <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>13</v>
+      <c r="E14" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>13</v>
@@ -1763,28 +1767,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{85D381C6-7833-0C4B-8B29-6926B2316715}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{85D5FC1A-EB47-1C4D-B95B-649C872A24FC}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{5A424E7A-538D-7D47-AD87-0973C201D033}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{90B5F49E-5D99-0641-A504-CF1B51E85AB2}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{516203EA-2FE9-4944-8E70-6F4BC189904C}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{87A887AF-5EF5-E840-B8A9-9413F7867875}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{AE74C25F-5BAC-6F47-8E4F-65F9319AD921}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{3F5B24F8-28CA-2845-BC39-193355A49B5D}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{8A5D5D9B-A9DF-5746-9B43-E8FF189DB3D3}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{BA6163A4-3DD3-E543-A181-19C6FF514EE5}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{1903D543-629F-4841-B8D4-2EB4C5C5908E}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{FE667E62-3637-AD4D-A58D-1781CD5BBBC5}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{823034D9-8D23-3042-B2F4-4B91B2B4CD2F}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{97956F01-F064-B342-95CC-C3EC58FA4DF2}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{B0F68562-D179-5E4A-B4AB-53AC897B9AC1}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{02891B9D-D9EB-4B42-8759-020561D7E92C}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{290616FC-0910-F340-A9C1-A412741ABBFB}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{6AB6F99F-8B33-A443-B45B-8A6759481E29}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{5626B783-3782-6C40-B0E8-D060C07B43F0}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{F2C8C890-58AD-0C4C-92F4-A99AA6A2FB8B}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{7FE4ABD2-34CA-C642-81EF-5A2038924E71}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{DA9352DE-8963-BA47-A669-A5590535AB5A}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -1793,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEFF2C8-377E-DB4A-8737-E2E7811E4600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2186,18 +2190,18 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{2B7F7EDF-26E0-AD4D-8A65-53E3202F65CF}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{26CFF27A-C941-054E-8FFE-69664DBEFC2F}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{5139E6DD-37C9-3146-848B-ACBA7D0C13D4}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{8EEBA894-FCBB-0145-98FB-AC8A76223B3C}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{9B63F24B-CC09-6640-9C67-1EEE38BAFD94}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{5999F899-1D25-BA43-B042-E80393F91DED}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{9252DDE4-1B7C-A943-8E6D-0B5E9F8C38DD}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{6A7898B8-41E0-6844-8A75-0A2A4CA8F1A1}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{23A7B626-E235-E646-9B1F-FD2EADC34889}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{DDF241B3-7A41-E948-A018-979B95805730}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{6EEB4265-B34B-4641-88F5-8B24E5604FF8}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{69CD6106-3425-684A-83CF-498C502203D1}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="89">
   <si>
     <t>题号</t>
   </si>
@@ -310,6 +310,11 @@
   <si>
     <t xml:space="preserve">2.15
 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.16</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +695,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1410,8 +1415,8 @@
       <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>13</v>
+      <c r="E15" s="27">
+        <v>2.16</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>13</v>
@@ -1470,8 +1475,8 @@
       <c r="D17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>13</v>
+      <c r="E17" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week01" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>题号</t>
   </si>
@@ -223,9 +223,6 @@
     <t>字母异位词分组</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/two-sum/description/</t>
   </si>
   <si>
@@ -315,6 +312,23 @@
   <si>
     <t xml:space="preserve">
 2.16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Deque
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序，HashMap</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -661,6 +675,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,7 +712,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E20F997-6467-F349-9381-E985E59DF7F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1205,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1216,7 +1233,7 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -1244,7 +1261,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -1272,7 +1289,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>13</v>
@@ -1300,7 +1317,7 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
@@ -1328,7 +1345,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1356,7 +1373,7 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>13</v>
@@ -1386,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>13</v>
@@ -1443,10 +1460,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
@@ -1473,10 +1490,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
@@ -1805,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1896,8 +1913,12 @@
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -1916,10 +1937,14 @@
         <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="45">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -1936,7 +1961,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1953,10 +1978,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1973,10 +1998,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1993,10 +2018,10 @@
         <v>590</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2013,10 +2038,10 @@
         <v>589</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2033,10 +2058,10 @@
         <v>429</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2050,13 +2075,13 @@
     </row>
     <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2122,7 +2147,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="5"/>
@@ -2148,13 +2173,13 @@
     </row>
     <row r="19" spans="1:10" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2171,10 +2196,10 @@
         <v>347</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2209,5 +2234,6 @@
     <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>